--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2135406.045499813</v>
+        <v>-2137403.718512658</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800624</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>343.9087550687003</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>206.5388853168328</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>219.1979954186421</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26.54536586583496</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>44.85034555736576</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>126.1788485660008</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.735037127980744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15.90252802695406</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>99.66075074687579</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>150.6607278274127</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>74.68565576901138</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>160.3349025342645</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>208.279329433658</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>105.5303094322325</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>131.7947857420141</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>132.5614115105193</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>92.2611071020071</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>69.79831921754631</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>44.33092494858447</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>161.4046520073179</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>193.3463058718591</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898725</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857177</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692859</v>
+        <v>78.3020725169287</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T25" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689359</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789518</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789566</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689363</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463154</v>
+        <v>42.2873553346315</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3952,19 +3952,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415277</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,19 +4189,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.506187451444</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C2" t="n">
-        <v>1139.506187451444</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D2" t="n">
-        <v>1139.506187451444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>1139.506187451444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>728.5202826618367</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2093.711799620786</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1762.648912277215</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1541.236795692728</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1167.771037431648</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>2196.666537004644</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>2196.666537004644</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>2196.666537004644</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>2196.666537004644</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2049.776589506734</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2049.776589506734</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2049.776589506734</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="V4" t="n">
-        <v>246.1363086691493</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>2378.315001834884</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>2378.315001834884</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>2378.315001834884</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1146.060557799969</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.060557799969</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949741</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1921.121768552647</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="Y5" t="n">
-        <v>1146.060557799969</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>154.6104068172087</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702.283515201396</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C8" t="n">
-        <v>1702.283515201396</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1344.017816594645</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>958.2295639964011</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>951.2840632471977</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>533.3202551453845</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>206.1255351813874</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2390.502857530551</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2390.502857530551</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.283515201396</v>
+        <v>1669.300638211168</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C10" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>566.1745372021267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>566.1745372021267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>566.1745372021267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y10" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>465.7659634441654</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C13" t="n">
-        <v>465.7659634441654</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X13" t="n">
-        <v>465.7659634441654</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.7659634441654</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,64 +5264,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>3855.008409413976</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>3855.008409413976</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R16" t="n">
-        <v>1405.723233081128</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S16" t="n">
-        <v>1205.80322299668</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T16" t="n">
-        <v>982.0178077861855</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U16" t="n">
-        <v>692.8891689997437</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V16" t="n">
-        <v>692.8891689997437</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W16" t="n">
-        <v>692.8891689997437</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="X16" t="n">
-        <v>464.8996181017263</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>4036.656874244216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845924</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528587</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>426.144983081245</v>
+        <v>460.5891336617992</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362487</v>
+        <v>460.5891336617992</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>460.5891336617992</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>460.5891336617992</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>460.5891336617992</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>292.4138119816198</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>141.9958035295631</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,10 +5689,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
@@ -5704,19 +5704,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227924</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227924</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9271131227924</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X19" t="n">
-        <v>646.9375622247751</v>
+        <v>681.3817128053294</v>
       </c>
       <c r="Y19" t="n">
-        <v>426.144983081245</v>
+        <v>460.5891336617992</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003442</v>
@@ -5738,64 +5738,64 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>190.6805289025651</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>339.750213104625</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L21" t="n">
-        <v>953.6472828615138</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.2520934878797</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5941,19 +5941,19 @@
         <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>1079.831556486945</v>
       </c>
       <c r="V22" t="n">
-        <v>731.31772835508</v>
+        <v>825.1470682810581</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181194</v>
+        <v>825.1470682810581</v>
       </c>
       <c r="X22" t="n">
-        <v>441.9005583181194</v>
+        <v>597.1575173830407</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.9005583181194</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>339.750213104625</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,10 +6166,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S25" t="n">
         <v>1865.165908942116</v>
@@ -6178,7 +6178,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
         <v>1304.027639859417</v>
@@ -6190,7 +6190,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6601,7 +6601,7 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083207</v>
@@ -6610,7 +6610,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,10 +6619,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649693</v>
@@ -6640,13 +6640,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,25 +6701,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1818.397748747284</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6841,49 +6841,49 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,25 +6938,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>339.750213104625</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7178,7 +7178,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7193,7 +7193,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103131</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982975</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,13 +7345,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7555,7 +7555,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,10 +7564,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254955</v>
@@ -7649,25 +7649,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229669</v>
@@ -7792,10 +7792,10 @@
         <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,10 +7819,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.23759968302093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>308.1251096272023</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>52.49733361305209</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>52.49733361305215</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714798</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10194,10 +10194,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>116.9087390531959</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>308.1251096272028</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>52.49733361305215</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>360.502686290725</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>360.502686290725</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>38.86002301949827</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>69.87541495209467</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>130.0429732987709</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>153.2391927357261</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>108.4202559265033</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,31 +22747,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>241.6726527792252</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>43.08516358597981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>86.78986761008068</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>16.05406150769301</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.70324530178569</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>97.44850188108153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>66.08832051568751</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>5.842169091309927</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>92.89104652671824</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1356179.194060527</v>
+        <v>1356179.194060528</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1356179.194060527</v>
+        <v>1356179.194060528</v>
       </c>
     </row>
     <row r="9">
@@ -26314,40 +26314,40 @@
         <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>19551.45298688545</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="F2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="G2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="H2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
+        <v>20526.04424660711</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="J2" t="n">
-        <v>20526.04424660713</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660708</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660707</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371231</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007456</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007451</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007414</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="K4" t="n">
         <v>30335.51889732793</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>30335.51889732795</v>
       </c>
-      <c r="K4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="L4" t="n">
-        <v>30335.51889732796</v>
-      </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="I5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="J5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="J5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,7 +26503,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-753628.6667043568</v>
+        <v>-753842.0786942354</v>
       </c>
       <c r="C6" t="n">
         <v>-210250.0825327232</v>
@@ -26528,25 +26528,25 @@
         <v>-210250.0825327232</v>
       </c>
       <c r="E6" t="n">
-        <v>-605512.6410947349</v>
+        <v>-605610.1002207069</v>
       </c>
       <c r="F6" t="n">
-        <v>-80352.60461783866</v>
+        <v>-80450.06374381082</v>
       </c>
       <c r="G6" t="n">
-        <v>-80352.60461783866</v>
+        <v>-80450.06374381084</v>
       </c>
       <c r="H6" t="n">
-        <v>-80352.60461783868</v>
+        <v>-80450.06374381084</v>
       </c>
       <c r="I6" t="n">
-        <v>-162030.0925744585</v>
+        <v>-162030.0925744588</v>
       </c>
       <c r="J6" t="n">
         <v>-283947.7996633392</v>
       </c>
       <c r="K6" t="n">
-        <v>-107524.5804707462</v>
+        <v>-107524.5804707463</v>
       </c>
       <c r="L6" t="n">
         <v>-107524.5804707463</v>
@@ -26558,10 +26558,10 @@
         <v>-162030.0925744588</v>
       </c>
       <c r="O6" t="n">
-        <v>-107524.5804707462</v>
+        <v>-107524.5804707463</v>
       </c>
       <c r="P6" t="n">
-        <v>-107524.5804707462</v>
+        <v>-107524.5804707463</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964065</v>
@@ -26713,19 +26713,19 @@
         <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26805,7 +26805,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964054</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964054</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>44.68528219145645</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14.07060952332483</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>201.5734099041341</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>377.5029015280729</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>132.7129449912583</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>126.0489046421614</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.270588417448579</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>141.7626645886464</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28020,19 +28020,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>125.9469717077133</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>17.43032595537917</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.2506324680951</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>590.4888118683106</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.4075125679588</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>203.0727722009914</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36522,13 +36522,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
         <v>246.5154907414414</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109096</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>429.2814066296109</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>427.3331161036622</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>515.2185245587276</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>203.0727722009914</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>609.7603912467494</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>609.7603912467494</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>349.2844000699646</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38190,10 +38190,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
